--- a/Porn database/Data/RAW/PH_gay/Categories.xlsx
+++ b/Porn database/Data/RAW/PH_gay/Categories.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raymo\Documents\GitHub\Callander-Research\Porn database\Data\RAW\PH_gay\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AA52903-40B1-47B7-8929-71AEAE000C6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29BCE6AB-CE08-435C-9682-9441D7BFE07B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{5E6BA999-30C0-45BD-8C20-FE6F5833B932}"/>
+    <workbookView xWindow="9585" yWindow="825" windowWidth="28800" windowHeight="11325" xr2:uid="{5E6BA999-30C0-45BD-8C20-FE6F5833B932}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="104">
   <si>
     <t>Closed Captions</t>
   </si>
@@ -328,6 +328,24 @@
   </si>
   <si>
     <t>Categories</t>
+  </si>
+  <si>
+    <t>Uncut</t>
+  </si>
+  <si>
+    <t>Sex</t>
+  </si>
+  <si>
+    <t>Hunks</t>
+  </si>
+  <si>
+    <t>Bareback</t>
+  </si>
+  <si>
+    <t>Verified</t>
+  </si>
+  <si>
+    <t>Big Cock</t>
   </si>
 </sst>
 </file>
@@ -680,10 +698,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{069CCD40-AEE3-4157-96F7-2636A1D1EE0B}">
-  <dimension ref="A1:A98"/>
+  <dimension ref="A1:A105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:E5"/>
+      <selection activeCell="A105" sqref="A105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1181,6 +1199,41 @@
         <v>4</v>
       </c>
     </row>
+    <row r="99" spans="1:1">
+      <c r="A99" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" t="s">
+        <v>103</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
